--- a/al6ayeb yosef Acc.xlsx
+++ b/al6ayeb yosef Acc.xlsx
@@ -824,6 +824,7 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -833,7 +834,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1131,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C118" workbookViewId="0">
-      <selection activeCell="L134" sqref="L134"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1147,18 +1147,21 @@
     <col min="9" max="12" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
+      <c r="H1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1180,8 +1183,11 @@
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>43237</v>
       </c>
@@ -1192,7 +1198,7 @@
         <v>14058000</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>43239</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>5062500</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>43237</v>
       </c>
@@ -1236,7 +1242,7 @@
         <v>1350000</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>43242</v>
       </c>
@@ -1251,7 +1257,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>43242</v>
       </c>
@@ -1266,7 +1272,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>43242</v>
       </c>
@@ -1281,7 +1287,7 @@
         <v>1035000</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>43242</v>
       </c>
@@ -1296,7 +1302,7 @@
         <v>693000</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>43242</v>
       </c>
@@ -1311,7 +1317,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>43243</v>
       </c>
@@ -1326,7 +1332,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>43243</v>
       </c>
@@ -1341,7 +1347,7 @@
         <v>1153000</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>43243</v>
       </c>
@@ -1356,7 +1362,7 @@
         <v>1035000</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>43243</v>
       </c>
@@ -1371,7 +1377,7 @@
         <v>920000</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>43243</v>
       </c>
@@ -1386,7 +1392,7 @@
         <v>162250</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>43243</v>
       </c>
@@ -3308,7 +3314,7 @@
         <v>13</v>
       </c>
       <c r="E126" s="3">
-        <f>E125-F126</f>
+        <f t="shared" ref="E126:E131" si="6">E125-F126</f>
         <v>-100822</v>
       </c>
       <c r="F126" s="3">
@@ -3317,7 +3323,7 @@
       <c r="I126" s="7">
         <v>43330</v>
       </c>
-      <c r="J126" s="13">
+      <c r="J126" s="10">
         <v>7562</v>
       </c>
       <c r="K126" s="8"/>
@@ -3333,7 +3339,7 @@
         <v>71</v>
       </c>
       <c r="E127" s="3">
-        <f>E126-F127</f>
+        <f t="shared" si="6"/>
         <v>-152822</v>
       </c>
       <c r="F127" s="3">
@@ -3359,7 +3365,7 @@
         <v>72</v>
       </c>
       <c r="E128" s="3">
-        <f>E127-F128</f>
+        <f t="shared" si="6"/>
         <v>-157322</v>
       </c>
       <c r="F128" s="3">
@@ -3385,7 +3391,7 @@
         <v>73</v>
       </c>
       <c r="E129" s="3">
-        <f>E128-F129</f>
+        <f t="shared" si="6"/>
         <v>-158822</v>
       </c>
       <c r="F129" s="3">
@@ -3411,7 +3417,7 @@
         <v>74</v>
       </c>
       <c r="E130" s="3">
-        <f>E129-F130</f>
+        <f t="shared" si="6"/>
         <v>-163822</v>
       </c>
       <c r="F130" s="3">
@@ -3420,7 +3426,7 @@
       <c r="I130" s="7">
         <v>43368</v>
       </c>
-      <c r="J130" s="13">
+      <c r="J130" s="10">
         <v>1238</v>
       </c>
       <c r="K130" s="8"/>
@@ -3437,7 +3443,7 @@
         <v>59</v>
       </c>
       <c r="E131" s="3">
-        <f>E130-F131</f>
+        <f t="shared" si="6"/>
         <v>-1213822</v>
       </c>
       <c r="F131" s="3">

--- a/al6ayeb yosef Acc.xlsx
+++ b/al6ayeb yosef Acc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="80">
   <si>
     <t>تاريخ</t>
   </si>
@@ -673,6 +673,31 @@
       </rPr>
       <t>489</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">فرق جولات </t>
+  </si>
+  <si>
+    <t xml:space="preserve">وردت يريم </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">جوال سكر اذن رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>450</t>
+    </r>
+  </si>
+  <si>
+    <t>ايداع حساب شركة ترافكو</t>
   </si>
 </sst>
 </file>
@@ -1131,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3487,30 +3512,102 @@
       <c r="L132" s="8"/>
     </row>
     <row r="133" spans="1:12" ht="26.25">
+      <c r="A133" s="2">
+        <v>43369</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E133" s="3">
+        <f>E132-F133</f>
+        <v>8000</v>
+      </c>
+      <c r="F133" s="3">
+        <v>3798</v>
+      </c>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
     </row>
     <row r="134" spans="1:12" ht="26.25">
+      <c r="A134" s="2">
+        <v>43372</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E134" s="3">
+        <f>E133-F134</f>
+        <v>0</v>
+      </c>
+      <c r="F134" s="3">
+        <v>8000</v>
+      </c>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
     </row>
     <row r="135" spans="1:12" ht="26.25">
+      <c r="A135" s="2">
+        <v>43373</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D135" s="4">
+        <v>985</v>
+      </c>
+      <c r="E135" s="3">
+        <f>G135</f>
+        <v>1477500</v>
+      </c>
+      <c r="G135" s="3">
+        <f>C135*D135</f>
+        <v>1477500</v>
+      </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
       <c r="L135" s="8"/>
     </row>
     <row r="136" spans="1:12" ht="26.25">
+      <c r="A136" s="2">
+        <v>43373</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E136" s="3">
+        <f>E135-F136</f>
+        <v>0</v>
+      </c>
+      <c r="F136" s="3">
+        <v>1477500</v>
+      </c>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
       <c r="L136" s="8"/>
     </row>
     <row r="137" spans="1:12" ht="26.25">
+      <c r="A137" s="2">
+        <v>43374</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E137" s="3">
+        <f>-F137</f>
+        <v>-4600000</v>
+      </c>
+      <c r="F137" s="3">
+        <v>4600000</v>
+      </c>
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
@@ -3529,7 +3626,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E17:E19 E30 E39 E44 E57 E60 E63 E67 E80:E81 E84:E87 E96 E120 E112 E102:E103 L130" formula="1"/>
+    <ignoredError sqref="E17:E19 E30 E39 E44 E57 E60 E63 E67 E80:E81 E84:E87 E96 E120 E112 E102:E103 L130 E135 E132" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/al6ayeb yosef Acc.xlsx
+++ b/al6ayeb yosef Acc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="89">
   <si>
     <t>تاريخ</t>
   </si>
@@ -699,12 +699,131 @@
   <si>
     <t>ايداع حساب شركة ترافكو</t>
   </si>
+  <si>
+    <t xml:space="preserve">ايداع حساب شركة لارين </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ايداع حساب شركة فيرونا  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">جوال سكر اذن رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>352</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">جوال سكر اذن رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>353</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">جوال سكر اذن رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>354</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">جوال سكر اذن رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>355</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">جوال سكر اذن رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>356</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">جوال سكر اذن رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>357</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">جوال سكر اذن رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>358</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5">
@@ -834,11 +953,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -859,9 +979,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1154,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L138"/>
+  <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1167,7 +1289,7 @@
     <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" style="3" customWidth="1"/>
     <col min="9" max="12" width="20.140625" customWidth="1"/>
   </cols>
@@ -3614,10 +3736,255 @@
       <c r="L137" s="8"/>
     </row>
     <row r="138" spans="1:12" ht="26.25">
+      <c r="A138" s="2">
+        <v>43377</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E138" s="3">
+        <f>E137-F138</f>
+        <v>-6464000</v>
+      </c>
+      <c r="F138" s="3">
+        <v>1864000</v>
+      </c>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
       <c r="L138" s="8"/>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" s="2">
+        <v>43381</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E139" s="3">
+        <f>E138-F139</f>
+        <v>-7514000</v>
+      </c>
+      <c r="F139" s="3">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" s="2">
+        <v>43381</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E140" s="3">
+        <f>E139-F140</f>
+        <v>-7990000</v>
+      </c>
+      <c r="F140" s="3">
+        <v>476000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" s="2">
+        <v>43382</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E141" s="3">
+        <f>E140-F141</f>
+        <v>-13740000</v>
+      </c>
+      <c r="F141" s="3">
+        <v>5750000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="2">
+        <v>43383</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E142" s="3">
+        <f>E141-F142</f>
+        <v>-23740000</v>
+      </c>
+      <c r="F142" s="3">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="2">
+        <v>43382</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E143" s="3">
+        <f>E142-F143</f>
+        <v>-29358000</v>
+      </c>
+      <c r="F143" s="3">
+        <v>5618000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" s="2">
+        <v>43375</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C144" s="1">
+        <v>4600</v>
+      </c>
+      <c r="D144" s="4">
+        <v>1010</v>
+      </c>
+      <c r="E144" s="3">
+        <f>E143+G144</f>
+        <v>-24712000</v>
+      </c>
+      <c r="G144" s="3">
+        <f>D144*C144</f>
+        <v>4646000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="2">
+        <v>43377</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C145" s="1">
+        <v>5300</v>
+      </c>
+      <c r="D145" s="4">
+        <v>1060</v>
+      </c>
+      <c r="E145" s="3">
+        <f>E144+G145</f>
+        <v>-19094000</v>
+      </c>
+      <c r="G145" s="3">
+        <f>D145*C145</f>
+        <v>5618000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="2">
+        <v>43380</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C146" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D146" s="4">
+        <v>1120</v>
+      </c>
+      <c r="E146" s="3">
+        <f>E145+G146</f>
+        <v>-13494000</v>
+      </c>
+      <c r="G146" s="3">
+        <f>D146*C146</f>
+        <v>5600000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="2">
+        <v>43379</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C147" s="1">
+        <v>1400</v>
+      </c>
+      <c r="D147" s="4">
+        <v>1090</v>
+      </c>
+      <c r="E147" s="3">
+        <f>E146+G147</f>
+        <v>-11968000</v>
+      </c>
+      <c r="G147" s="3">
+        <f>D147*C147</f>
+        <v>1526000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="2">
+        <v>43379</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C148" s="1">
+        <v>4900</v>
+      </c>
+      <c r="D148" s="4">
+        <v>1120</v>
+      </c>
+      <c r="E148" s="3">
+        <f>E147+G148</f>
+        <v>-6480000</v>
+      </c>
+      <c r="G148" s="3">
+        <f>D148*C148</f>
+        <v>5488000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="2">
+        <v>43381</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C149" s="1">
+        <v>6100</v>
+      </c>
+      <c r="D149" s="4">
+        <v>1120</v>
+      </c>
+      <c r="E149" s="3">
+        <f>E148+G149</f>
+        <v>352000</v>
+      </c>
+      <c r="G149" s="3">
+        <f>D149*C149</f>
+        <v>6832000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="2">
+        <v>43377</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C150" s="1">
+        <v>1800</v>
+      </c>
+      <c r="D150" s="4">
+        <v>1010</v>
+      </c>
+      <c r="E150" s="3">
+        <f>E149+G150</f>
+        <v>2170000</v>
+      </c>
+      <c r="G150" s="3">
+        <f>D150*C150</f>
+        <v>1818000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="F154" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3626,7 +3993,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E17:E19 E30 E39 E44 E57 E60 E63 E67 E80:E81 E84:E87 E96 E120 E112 E102:E103 L130 E135 E132" formula="1"/>
+    <ignoredError sqref="E17:E19 E30 E39 E44 E57 E60 E63 E67 E80:E81 E84:E87 E96 E120 E112 E102:E103 L130 E135 E132 E137" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/al6ayeb yosef Acc.xlsx
+++ b/al6ayeb yosef Acc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="90">
   <si>
     <t>تاريخ</t>
   </si>
@@ -816,6 +816,9 @@
       </rPr>
       <t>358</t>
     </r>
+  </si>
+  <si>
+    <t>ايداع حساب شركة سفانا للدواجن</t>
   </si>
 </sst>
 </file>
@@ -970,6 +973,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -979,7 +983,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1278,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="F155" sqref="F155"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1295,15 +1298,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
       <c r="H1">
         <v>1111</v>
       </c>
@@ -3743,7 +3746,7 @@
         <v>59</v>
       </c>
       <c r="E138" s="3">
-        <f>E137-F138</f>
+        <f t="shared" ref="E138:E143" si="7">E137-F138</f>
         <v>-6464000</v>
       </c>
       <c r="F138" s="3">
@@ -3762,7 +3765,7 @@
         <v>80</v>
       </c>
       <c r="E139" s="3">
-        <f>E138-F139</f>
+        <f t="shared" si="7"/>
         <v>-7514000</v>
       </c>
       <c r="F139" s="3">
@@ -3777,7 +3780,7 @@
         <v>59</v>
       </c>
       <c r="E140" s="3">
-        <f>E139-F140</f>
+        <f t="shared" si="7"/>
         <v>-7990000</v>
       </c>
       <c r="F140" s="3">
@@ -3792,7 +3795,7 @@
         <v>81</v>
       </c>
       <c r="E141" s="3">
-        <f>E140-F141</f>
+        <f t="shared" si="7"/>
         <v>-13740000</v>
       </c>
       <c r="F141" s="3">
@@ -3807,7 +3810,7 @@
         <v>81</v>
       </c>
       <c r="E142" s="3">
-        <f>E141-F142</f>
+        <f t="shared" si="7"/>
         <v>-23740000</v>
       </c>
       <c r="F142" s="3">
@@ -3822,7 +3825,7 @@
         <v>80</v>
       </c>
       <c r="E143" s="3">
-        <f>E142-F143</f>
+        <f t="shared" si="7"/>
         <v>-29358000</v>
       </c>
       <c r="F143" s="3">
@@ -3843,11 +3846,11 @@
         <v>1010</v>
       </c>
       <c r="E144" s="3">
-        <f>E143+G144</f>
+        <f t="shared" ref="E144:E150" si="8">E143+G144</f>
         <v>-24712000</v>
       </c>
       <c r="G144" s="3">
-        <f>D144*C144</f>
+        <f t="shared" ref="G144:G151" si="9">D144*C144</f>
         <v>4646000</v>
       </c>
     </row>
@@ -3865,11 +3868,11 @@
         <v>1060</v>
       </c>
       <c r="E145" s="3">
-        <f>E144+G145</f>
+        <f t="shared" si="8"/>
         <v>-19094000</v>
       </c>
       <c r="G145" s="3">
-        <f>D145*C145</f>
+        <f t="shared" si="9"/>
         <v>5618000</v>
       </c>
     </row>
@@ -3887,11 +3890,11 @@
         <v>1120</v>
       </c>
       <c r="E146" s="3">
-        <f>E145+G146</f>
+        <f t="shared" si="8"/>
         <v>-13494000</v>
       </c>
       <c r="G146" s="3">
-        <f>D146*C146</f>
+        <f t="shared" si="9"/>
         <v>5600000</v>
       </c>
     </row>
@@ -3909,11 +3912,11 @@
         <v>1090</v>
       </c>
       <c r="E147" s="3">
-        <f>E146+G147</f>
+        <f t="shared" si="8"/>
         <v>-11968000</v>
       </c>
       <c r="G147" s="3">
-        <f>D147*C147</f>
+        <f t="shared" si="9"/>
         <v>1526000</v>
       </c>
     </row>
@@ -3931,11 +3934,11 @@
         <v>1120</v>
       </c>
       <c r="E148" s="3">
-        <f>E147+G148</f>
+        <f t="shared" si="8"/>
         <v>-6480000</v>
       </c>
       <c r="G148" s="3">
-        <f>D148*C148</f>
+        <f t="shared" si="9"/>
         <v>5488000</v>
       </c>
     </row>
@@ -3953,11 +3956,11 @@
         <v>1120</v>
       </c>
       <c r="E149" s="3">
-        <f>E148+G149</f>
+        <f t="shared" si="8"/>
         <v>352000</v>
       </c>
       <c r="G149" s="3">
-        <f>D149*C149</f>
+        <f t="shared" si="9"/>
         <v>6832000</v>
       </c>
     </row>
@@ -3975,16 +3978,53 @@
         <v>1010</v>
       </c>
       <c r="E150" s="3">
-        <f>E149+G150</f>
+        <f t="shared" si="8"/>
         <v>2170000</v>
       </c>
       <c r="G150" s="3">
-        <f>D150*C150</f>
+        <f t="shared" si="9"/>
         <v>1818000</v>
       </c>
     </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="2">
+        <v>43382</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C151" s="1">
+        <v>7400</v>
+      </c>
+      <c r="D151" s="4">
+        <v>1135</v>
+      </c>
+      <c r="E151" s="3">
+        <f>E150+G151</f>
+        <v>10569000</v>
+      </c>
+      <c r="G151" s="3">
+        <f t="shared" si="9"/>
+        <v>8399000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="2">
+        <v>43384</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E152" s="3">
+        <f>E151-F152</f>
+        <v>5869000</v>
+      </c>
+      <c r="F152" s="3">
+        <v>4700000</v>
+      </c>
+    </row>
     <row r="154" spans="1:7">
-      <c r="F154" s="14"/>
+      <c r="F154" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/al6ayeb yosef Acc.xlsx
+++ b/al6ayeb yosef Acc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>تاريخ</t>
   </si>
@@ -819,6 +819,38 @@
   </si>
   <si>
     <t>ايداع حساب شركة سفانا للدواجن</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">جوال سكر اذن رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>366</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">جوال سكر اذن رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>368</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1279,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L154"/>
+  <dimension ref="A1:L155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4023,8 +4055,65 @@
         <v>4700000</v>
       </c>
     </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="2">
+        <v>43388</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E153" s="3">
+        <f>E152-F153</f>
+        <v>3869000</v>
+      </c>
+      <c r="F153" s="3">
+        <v>2000000</v>
+      </c>
+    </row>
     <row r="154" spans="1:7">
+      <c r="A154" s="2">
+        <v>43387</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C154" s="1">
+        <v>5800</v>
+      </c>
+      <c r="D154" s="4">
+        <v>1040</v>
+      </c>
+      <c r="E154" s="3">
+        <f>E153+G154</f>
+        <v>9901000</v>
+      </c>
       <c r="F154" s="11"/>
+      <c r="G154" s="3">
+        <f>D154*C154</f>
+        <v>6032000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="2">
+        <v>43388</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C155" s="1">
+        <v>2200</v>
+      </c>
+      <c r="D155" s="4">
+        <v>1030</v>
+      </c>
+      <c r="E155" s="3">
+        <f>E154+G155</f>
+        <v>12167000</v>
+      </c>
+      <c r="G155" s="3">
+        <f>D155*C155</f>
+        <v>2266000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/al6ayeb yosef Acc.xlsx
+++ b/al6ayeb yosef Acc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>تاريخ</t>
   </si>
@@ -1311,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L155"/>
+  <dimension ref="A1:L157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="E156" sqref="E156"/>
+      <selection activeCell="E158" sqref="E158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4113,6 +4113,36 @@
       <c r="G155" s="3">
         <f>D155*C155</f>
         <v>2266000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="2">
+        <v>43390</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E156" s="3">
+        <f>E155-F156</f>
+        <v>9467000</v>
+      </c>
+      <c r="F156" s="3">
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="2">
+        <v>43391</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E157" s="3">
+        <f>E156-F157</f>
+        <v>4867000</v>
+      </c>
+      <c r="F157" s="3">
+        <v>4600000</v>
       </c>
     </row>
   </sheetData>

--- a/al6ayeb yosef Acc.xlsx
+++ b/al6ayeb yosef Acc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="97">
   <si>
     <t>تاريخ</t>
   </si>
@@ -850,6 +850,73 @@
         <scheme val="minor"/>
       </rPr>
       <t>368</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">جوال سكر اذن رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>373</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">جوال سكر اذن رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>372</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ايداع حساب شركة فيرونا </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">جوال سكر اذن رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>376</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">جوال سكر اذن رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>375</t>
     </r>
   </si>
 </sst>
@@ -1311,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L157"/>
+  <dimension ref="A1:L166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="E158" sqref="E158"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4145,6 +4212,169 @@
         <v>4600000</v>
       </c>
     </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="2">
+        <v>43389</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C158" s="1">
+        <v>800</v>
+      </c>
+      <c r="D158" s="4">
+        <v>1030</v>
+      </c>
+      <c r="E158" s="3">
+        <f>E157+G158</f>
+        <v>5691000</v>
+      </c>
+      <c r="G158" s="3">
+        <f>D158*C158</f>
+        <v>824000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="2">
+        <v>43389</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C159" s="1">
+        <v>1400</v>
+      </c>
+      <c r="D159" s="4">
+        <v>1080</v>
+      </c>
+      <c r="E159" s="3">
+        <f>E158+G159</f>
+        <v>7203000</v>
+      </c>
+      <c r="G159" s="3">
+        <f>D159*C159</f>
+        <v>1512000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="2">
+        <v>43390</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C160" s="1">
+        <v>5100</v>
+      </c>
+      <c r="D160" s="4">
+        <v>1080</v>
+      </c>
+      <c r="E160" s="3">
+        <f>E159+G160</f>
+        <v>12711000</v>
+      </c>
+      <c r="G160" s="3">
+        <f>D160*C160</f>
+        <v>5508000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="2">
+        <v>43394</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161" s="3">
+        <f>E160-F161</f>
+        <v>12611000</v>
+      </c>
+      <c r="F161" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="2">
+        <v>43394</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E162" s="3">
+        <f>E161-F162</f>
+        <v>11852000</v>
+      </c>
+      <c r="F162" s="3">
+        <v>759000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="2">
+        <v>43394</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E163" s="3">
+        <f>E162-F163</f>
+        <v>7152000</v>
+      </c>
+      <c r="F163" s="3">
+        <v>4700000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="2">
+        <v>43394</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E164" s="3">
+        <f>E163-F164</f>
+        <v>6111000</v>
+      </c>
+      <c r="F164" s="3">
+        <v>1041000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="2">
+        <v>43390</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C165" s="1">
+        <v>700</v>
+      </c>
+      <c r="D165" s="4">
+        <v>1030</v>
+      </c>
+      <c r="E165" s="3">
+        <f>E164+G165</f>
+        <v>6832000</v>
+      </c>
+      <c r="G165" s="3">
+        <f>D165*C165</f>
+        <v>721000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="2">
+        <v>43395</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E166" s="3">
+        <f>E165-F166</f>
+        <v>3832000</v>
+      </c>
+      <c r="F166" s="3">
+        <v>3000000</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
@@ -4152,7 +4382,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E17:E19 E30 E39 E44 E57 E60 E63 E67 E80:E81 E84:E87 E96 E120 E112 E102:E103 L130 E135 E132 E137" formula="1"/>
+    <ignoredError sqref="E17:E19 E30 E39 E44 E57 E60 E63 E67 E80:E81 E84:E87 E96 E120 E112 E102:E103 L130 E135 E132 E137 E165" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/al6ayeb yosef Acc.xlsx
+++ b/al6ayeb yosef Acc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="100">
   <si>
     <t>تاريخ</t>
   </si>
@@ -918,6 +918,28 @@
       </rPr>
       <t>375</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">فرق الجوالات </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">جوال سكر اذن رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>382</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ايداع حساب لكسنبورج </t>
   </si>
 </sst>
 </file>
@@ -1378,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L166"/>
+  <dimension ref="A1:L176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="E165" sqref="E165"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1396,7 +1418,7 @@
     <col min="9" max="12" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
@@ -1406,11 +1428,8 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="14"/>
-      <c r="H1">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1432,11 +1451,8 @@
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>43237</v>
       </c>
@@ -1447,7 +1463,7 @@
         <v>14058000</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>43239</v>
       </c>
@@ -1469,7 +1485,7 @@
         <v>5062500</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>43237</v>
       </c>
@@ -1491,7 +1507,7 @@
         <v>1350000</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>43242</v>
       </c>
@@ -1506,7 +1522,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>43242</v>
       </c>
@@ -1521,7 +1537,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>43242</v>
       </c>
@@ -1536,7 +1552,7 @@
         <v>1035000</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>43242</v>
       </c>
@@ -1551,7 +1567,7 @@
         <v>693000</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>43242</v>
       </c>
@@ -1566,7 +1582,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>43243</v>
       </c>
@@ -1581,7 +1597,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>43243</v>
       </c>
@@ -1596,7 +1612,7 @@
         <v>1153000</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>43243</v>
       </c>
@@ -1611,7 +1627,7 @@
         <v>1035000</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>43243</v>
       </c>
@@ -1626,7 +1642,7 @@
         <v>920000</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>43243</v>
       </c>
@@ -1641,7 +1657,7 @@
         <v>162250</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>43243</v>
       </c>
@@ -4373,6 +4389,177 @@
       </c>
       <c r="F166" s="3">
         <v>3000000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="2">
+        <v>43396</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E167" s="3">
+        <f>E166-F167</f>
+        <v>3810010</v>
+      </c>
+      <c r="F167" s="3">
+        <v>21990</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="2">
+        <v>43396</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E168" s="3">
+        <f>E167-F168</f>
+        <v>810010</v>
+      </c>
+      <c r="F168" s="3">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="2">
+        <v>43394</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C169" s="1">
+        <v>2500</v>
+      </c>
+      <c r="D169" s="4">
+        <v>1135</v>
+      </c>
+      <c r="E169" s="3">
+        <f>E168+G169</f>
+        <v>3647510</v>
+      </c>
+      <c r="G169" s="3">
+        <f>D169*C169</f>
+        <v>2837500</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="2">
+        <v>43398</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E170" s="3">
+        <f>E169-F170</f>
+        <v>647510</v>
+      </c>
+      <c r="F170" s="3">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="2">
+        <v>43401</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C171" s="1">
+        <v>4200</v>
+      </c>
+      <c r="D171" s="4">
+        <v>1160</v>
+      </c>
+      <c r="E171" s="3">
+        <f>E170+G171</f>
+        <v>5519510</v>
+      </c>
+      <c r="G171" s="3">
+        <f>D171*C171</f>
+        <v>4872000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="2">
+        <v>43401</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E172" s="3">
+        <f>E171-F172</f>
+        <v>5369510</v>
+      </c>
+      <c r="F172" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="2">
+        <v>43403</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E173" s="3">
+        <f>E172-F173</f>
+        <v>369510</v>
+      </c>
+      <c r="F173" s="3">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="2">
+        <v>43403</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E174" s="3">
+        <f>E173-F174</f>
+        <v>269510</v>
+      </c>
+      <c r="F174" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="2">
+        <v>43402</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C175" s="1">
+        <v>8600</v>
+      </c>
+      <c r="D175" s="4">
+        <v>1150</v>
+      </c>
+      <c r="E175" s="3">
+        <f>E174+G175</f>
+        <v>10159510</v>
+      </c>
+      <c r="G175" s="3">
+        <f>D175*C175</f>
+        <v>9890000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="2">
+        <v>43402</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E176" s="3">
+        <f>E175-F176</f>
+        <v>6159510</v>
+      </c>
+      <c r="F176" s="3">
+        <v>4000000</v>
       </c>
     </row>
   </sheetData>
@@ -4382,7 +4569,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E17:E19 E30 E39 E44 E57 E60 E63 E67 E80:E81 E84:E87 E96 E120 E112 E102:E103 L130 E135 E132 E137 E165" formula="1"/>
+    <ignoredError sqref="E17:E19 E30 E39 E44 E57 E60 E63 E67 E80:E81 E84:E87 E96 E120 E112 E102:E103 L130 E135 E132 E137 E165 E169:E171 E175" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
